--- a/Assets/DataTables/ArmorDB.xlsx
+++ b/Assets/DataTables/ArmorDB.xlsx
@@ -32,7 +32,7 @@
     <t>GameAssetId</t>
   </si>
   <si>
-    <t>DefaultDefenseDamagePerAttack</t>
+    <t>DefenseDamagePerAttack</t>
   </si>
   <si>
     <t>AdditionalStat</t>
